--- a/public/file_import/parents.xlsx
+++ b/public/file_import/parents.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A1D3BFC-311E-4379-A7B3-6ED04E3FC38F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{535AD85E-85B2-40A3-88F8-DD042C555126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>จำเป็นต้องกรอก</t>
+  </si>
   <si>
     <t>identificatio_no_child</t>
   </si>
@@ -121,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,11 +141,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -154,7 +152,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,8 +171,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -210,29 +214,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -246,6 +257,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -562,130 +589,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:17">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="6" t="s">
         <v>29</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{67F2DC1F-8531-4194-8B6C-B9C3CF45A978}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{67F2DC1F-8531-4194-8B6C-B9C3CF45A978}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/file_import/parents.xlsx
+++ b/public/file_import/parents.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23011"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{535AD85E-85B2-40A3-88F8-DD042C555126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94076F7C-FE4B-4516-920D-768851D84B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+  <si>
+    <t>ไฟล์นำเข้าข้อมูลผู้ปกครองนักเรียนในโรงเรียน</t>
+  </si>
   <si>
     <t>จำเป็นต้องกรอก</t>
   </si>
@@ -124,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +154,15 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +187,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -232,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,13 +281,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,134 +611,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" ht="24.75" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.75">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="P3" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="B2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="N4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>30</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{67F2DC1F-8531-4194-8B6C-B9C3CF45A978}"/>
+    <hyperlink ref="N4" r:id="rId1" xr:uid="{67F2DC1F-8531-4194-8B6C-B9C3CF45A978}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/file_import/parents.xlsx
+++ b/public/file_import/parents.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23011"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94076F7C-FE4B-4516-920D-768851D84B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7320794-B5EF-430D-A03C-BBD919A0FD79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>ไฟล์นำเข้าข้อมูลผู้ปกครองนักเรียนในโรงเรียน</t>
   </si>
   <si>
     <t>จำเป็นต้องกรอก</t>
+  </si>
+  <si>
+    <t>ตย. บิดา มารดา ปู่/ตา ย่า/ยาย ลุง ป้า ลูกพี่ลูกน้อง</t>
+  </si>
+  <si>
+    <t>ตย. ชาย หญิง</t>
   </si>
   <si>
     <t>identificatio_no_child</t>
@@ -248,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,13 +293,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,15 +622,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD61"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
@@ -631,138 +640,144 @@
     <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>1</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/public/file_import/parents.xlsx
+++ b/public/file_import/parents.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23011"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7320794-B5EF-430D-A03C-BBD919A0FD79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC6F7B2-1C01-40D0-A8B9-EC02AC63CD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,10 @@
     <t>จำเป็นต้องกรอก</t>
   </si>
   <si>
-    <t>ตย. บิดา มารดา ปู่/ตา ย่า/ยาย ลุง ป้า ลูกพี่ลูกน้อง</t>
-  </si>
-  <si>
-    <t>ตย. ชาย หญิง</t>
+    <t>ตัวอย่าง: บิดา มารดา ปู่/ตา ย่า/ยาย ลุง  ป้า  ลูกพี่ลูกน้อง</t>
+  </si>
+  <si>
+    <t>ตัวอย่าง ชาย หญิง</t>
   </si>
   <si>
     <t>identificatio_no_child</t>
@@ -293,16 +293,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD46"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -647,40 +647,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>3</v>
       </c>
     </row>
